--- a/excels/ISG15.xlsx
+++ b/excels/ISG15.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alaimos/Desktop/correlation/VVComparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6EAF48-BF5A-F24D-A8CC-79A3DA9E6AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461F284F-F051-014C-96DC-A4DD10E76A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{A8936BDD-CD90-BB4C-B881-3854B7F785C1}"/>
   </bookViews>
@@ -35,12 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
-    <t>SARS-CoV2 MOI 2.0</t>
-  </si>
-  <si>
-    <t>Rhinovirus</t>
-  </si>
-  <si>
     <t>IAV</t>
   </si>
   <si>
@@ -204,6 +198,12 @@
   </si>
   <si>
     <t>KPNs</t>
+  </si>
+  <si>
+    <t>SARS-CoV2</t>
+  </si>
+  <si>
+    <t>HRV</t>
   </si>
 </sst>
 </file>
@@ -265,9 +265,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -305,7 +305,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -411,7 +411,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -553,7 +553,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDE8FD5-F4F2-A042-AE90-AE902CA0A8A2}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,33 +577,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>-3.1523189600000001</v>
@@ -623,10 +623,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>-3.8918201990000001</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>-4.2545988829999999</v>
@@ -669,10 +669,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>-3.8918201990000001</v>
@@ -692,10 +692,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>-3.8918201990000001</v>
@@ -715,10 +715,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>-4.8202813170000001</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>-3.4094961229999998</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>-3.8918201990000001</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>-3.8918201990000001</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>-3.1271781129999998</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>-4.2545988829999999</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>-4.3297205290000003</v>
@@ -876,10 +876,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>-1.4306334700000001</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>-4.3297205290000003</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>-4.3297205290000003</v>
@@ -945,10 +945,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>-3.8918201990000001</v>
@@ -968,10 +968,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>-4.8202813170000001</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>-4.8202813170000001</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>-3.8918201990000001</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>-3.346803252</v>
@@ -1060,10 +1060,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>-3.8420091109999999</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>-4.4107758820000003</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>-3.8918201991310402</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>-4.82028131661313</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>-3.1780537813896101</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>-4.0573956594611902</v>
@@ -1198,10 +1198,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>-1.43063347024153</v>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>-3.0320222325291502</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>-3.0320222325291502</v>
@@ -1313,10 +1313,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>-3.0320222325291502</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
         <v>54</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
       </c>
       <c r="C34">
         <v>-3.0320222325291502</v>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35">
         <v>-3.0320222325291502</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>-3.8918201990000001</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>-1.6360738589999999</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>4.057395659</v>
@@ -1451,10 +1451,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>-4.3297205290000003</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>-4.5951196510000001</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42">
         <v>-3.584547143</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <v>-1.5998684510000001</v>
@@ -1566,10 +1566,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C44">
         <v>4.8202813170000001</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C45">
         <v>3.8918201990000001</v>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46">
         <v>-4.4107758820000003</v>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C47">
         <v>-3.8918201990000001</v>
@@ -1658,10 +1658,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48">
         <v>-1.6360738589999999</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C49">
         <v>4.057395659</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50">
         <v>-4.3297205290000003</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C52">
         <v>-4.5951196510000001</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C53">
         <v>-3.584547143</v>
